--- a/Stat reports/Reports/Templates/4-ф (затраты).xlsx
+++ b/Stat reports/Reports/Templates/4-ф (затраты).xlsx
@@ -3,14 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Статотчетность_дирекция\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31D7DDF-B95D-4E46-9465-DEEF67791281}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21375" windowHeight="7905" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21375" windowHeight="7905" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Главная" sheetId="1" r:id="rId1"/>
@@ -19,32 +13,32 @@
     <sheet name="Раздел 3" sheetId="4" r:id="rId4"/>
     <sheet name="Раздел 4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="296">
   <si>
-    <t>ГОСУДАРСТВЕННАЯ СТАТИСТИЧЕСКАЯ ОТЧЕТНОСТЬ</t>
-  </si>
-  <si>
-    <t>КОНФИДЕНЦИАЛЬНОСТЬ ГАРАНТИРУЕТСЯ ПОЛУЧАТЕЛЕМ ИНФОРМАЦИИ</t>
-  </si>
-  <si>
-    <t>Представление искаженных данных государственной статистической отчетности, несвоевременное представление или непредставление такой отчетности влекут применение мер административной или уголовной ответственности в порядке, установленном законодательством Республики Беларусь</t>
-  </si>
-  <si>
-    <t>Представляют респонденты</t>
-  </si>
-  <si>
-    <t>Срок представления</t>
-  </si>
-  <si>
-    <t>4-ф (затраты)</t>
-  </si>
-  <si>
-    <t>юридические лица, обособленные подразделения юридических лиц
+    <t xml:space="preserve">ГОСУДАРСТВЕННАЯ СТАТИСТИЧЕСКАЯ ОТЧЕТНОСТЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНФИДЕНЦИАЛЬНОСТЬ ГАРАНТИРУЕТСЯ ПОЛУЧАТЕЛЕМ ИНФОРМАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представление искаженных данных государственной статистической отчетности, несвоевременное представление или непредставление такой отчетности влекут применение мер административной или уголовной ответственности в порядке, установленном законодательством Республики Беларусь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представляют респонденты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срок представления</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-ф (затраты)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">юридические лица, обособленные подразделения юридических лиц
 в соответствии с Указаниями по заполнению настоящей формы в
 виде электронного документа
 Главному статистическому управлению города Минска; отделу
@@ -55,218 +49,218 @@
 главное статистическое управление области</t>
   </si>
   <si>
-    <t>26-го числа после отчетного периода, за
+    <t xml:space="preserve">26-го числа после отчетного периода, за
 январь-декабрь - 30 марта</t>
   </si>
   <si>
-    <t>Код формы
+    <t xml:space="preserve">Код формы
 по ОКУД</t>
   </si>
   <si>
-    <t>0631004</t>
-  </si>
-  <si>
-    <t>Квартальная</t>
-  </si>
-  <si>
-    <t>Полное наименование юридического лица: ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "СТРОЙТРЕСТ N 3 ОРДЕНА
+    <t xml:space="preserve">0631004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Квартальная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полное наименование юридического лица: ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "СТРОЙТРЕСТ N 3 ОРДЕНА
 ОКТЯБРЬСКОЙ РЕВОЛЮЦИИ"</t>
   </si>
   <si>
-    <t>Полное наименование обособленного подразделения юридического лица: ФИЛИАЛ "АГРОФИРМА "КРАСНАЯ НИВА"
+    <t xml:space="preserve">Полное наименование обособленного подразделения юридического лица: ФИЛИАЛ "АГРОФИРМА "КРАСНАЯ НИВА"
 ОТКРЫТОГО АКЦИОНЕРНОГО ОБЩЕСТВА "СТРОЙТРЕСТ N 3 ОРДЕНА ОКТЯБРЬСКОЙ РЕВОЛЮЦИИ"</t>
   </si>
   <si>
-    <t>Местоположение: 223726, МИНСКАЯ ОБЛАСТЬ, Солигорский, Октябрьский сельский Совет, д Мозоли</t>
-  </si>
-  <si>
-    <t>Электронный адрес: krniva-ok@mail.ru</t>
-  </si>
-  <si>
-    <t>Регистрационный номер в статистическом регистре (ОКПО)</t>
-  </si>
-  <si>
-    <t>Учетный номер плательщика (УНП)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>012774946015</t>
-  </si>
-  <si>
-    <t>601057410</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>Отдельные статьи затрат (из строки 015)</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>Плата за природные ресурсы (из строки 003)</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>издание буклетов, каталогов и другой рекламной продукции</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>радио</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>интернет-рекламу</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>телевизионную</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>из них на: наружную</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Справочно: расходы на рекламу - всего</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>прочие затраты</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>амортизация нематериальных активов</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>в том числе: амортизация основных средств</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>амортизация основных средств и нематериальных активов, используемых в
+    <t xml:space="preserve">Местоположение: 223726, МИНСКАЯ ОБЛАСТЬ, Солигорский, Октябрьский сельский Совет, д Мозоли</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Электронный адрес: krniva-ok@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регистрационный номер в статистическом регистре (ОКПО)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учетный номер плательщика (УНП)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012774946015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">601057410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отдельные статьи затрат (из строки 015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плата за природные ресурсы (из строки 003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">издание буклетов, каталогов и другой рекламной продукции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">радио</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">интернет-рекламу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">телевизионную</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них на: наружную</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Справочно: расходы на рекламу - всего</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прочие затраты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">амортизация нематериальных активов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в том числе: амортизация основных средств</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">амортизация основных средств и нематериальных активов, используемых в
 предпринимательской деятельности (сумма строк 013, 014)</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>отчисления на социальные нужды</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>затраты на оплату труда</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>тепловая энергия</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>электрическая энергия</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>из него импортное</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>топливо</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>из них импортные</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>из них: сырье, материалы, покупные комплектующие изделия и полуфабрикаты</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>в том числе: материальные затраты</t>
-  </si>
-  <si>
-    <t>Затраты на производство и реализацию продукции (работ, услуг)(сумма строк 003, с
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">отчисления на социальные нужды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">затраты на оплату труда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тепловая энергия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">электрическая энергия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из него импортное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">топливо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них импортные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них: сырье, материалы, покупные комплектующие изделия и полуфабрикаты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в том числе: материальные затраты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Затраты на производство и реализацию продукции (работ, услуг)(сумма строк 003, с
 010 по 012, 015)</t>
   </si>
   <si>
-    <t>Объем производства продукции (работ, услуг) в отпускных ценах за вычетом налогов
+    <t xml:space="preserve">Объем производства продукции (работ, услуг) в отпускных ценах за вычетом налогов
 и сборов, исчисляемых из выручки</t>
   </si>
   <si>
-    <t>Б</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Код</t>
-  </si>
-  <si>
-    <t>Наименование показателя</t>
-  </si>
-  <si>
-    <t>Раздел 1</t>
-  </si>
-  <si>
-    <t>Затраты на производство и реализацию продукции (работ, услуг) в целом по организации</t>
+    <t xml:space="preserve">Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование показателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Затраты на производство и реализацию продукции (работ, услуг) в целом по организации</t>
   </si>
   <si>
     <t xml:space="preserve">Таблица 1  </t>
   </si>
   <si>
-    <t>тысяч рублей</t>
-  </si>
-  <si>
-    <t>За
+    <t xml:space="preserve">тысяч рублей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">За
 отчетный
 период
 с
@@ -274,7 +268,7 @@
 года</t>
   </si>
   <si>
-    <t>За
+    <t xml:space="preserve">За
 соответствующий
 период
 с
@@ -283,629 +277,629 @@
 года</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>средства защиты растений и животных</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>минеральные удобрения</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>корма</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>Из строки 023: семена и посадочный материал</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>Ветеринарные услуги</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>Командировочные расходы</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>Внутризаводской оборот, включаемый в объем производства продукции (работ, услуг)</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Внутризаводской оборот, включаемый в затраты на производство продукции (работ,
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">средства защиты растений и животных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">минеральные удобрения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">корма</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из строки 023: семена и посадочный материал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ветеринарные услуги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Командировочные расходы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Внутризаводской оборот, включаемый в объем производства продукции (работ, услуг)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Внутризаводской оборот, включаемый в затраты на производство продукции (работ,
 услуг)</t>
   </si>
   <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>другие затраты</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>по сбору, обработке и удалению отходов</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>водоснабжение, отвод и очистка сточных вод</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>лабораторные исследования, инженерные изыскания и технические испытания</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>здравоохранения</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>образования</t>
-  </si>
-  <si>
-    <t>по уборке территории, зданий, машин и оборудования</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>услуги в области права и бухгалтерского учета</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>банков и небанковских кредитно-финансовых организаций</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>по охране имущества</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>по научным разработкам</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>по технической поддержке программного обеспечения</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>в области телекоммуникаций</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>почтовой и курьерской деятельности</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>пассажирского транспорта</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>из них услуги: гостиниц и прочих мест временного проживания</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>услуги других субъектов хозяйствования</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>страховые взносы</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>представительские расходы</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>начисленные налоги, сборы (пошлины), платежи, включаемые в затраты на
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">другие затраты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">по сбору, обработке и удалению отходов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">водоснабжение, отвод и очистка сточных вод</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лабораторные исследования, инженерные изыскания и технические испытания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">здравоохранения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">образования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">по уборке территории, зданий, машин и оборудования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">услуги в области права и бухгалтерского учета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">банков и небанковских кредитно-финансовых организаций</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">по охране имущества</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">по научным разработкам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">по технической поддержке программного обеспечения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в области телекоммуникаций</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">почтовой и курьерской деятельности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пассажирского транспорта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них услуги: гостиниц и прочих мест временного проживания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">услуги других субъектов хозяйствования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">страховые взносы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">представительские расходы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">начисленные налоги, сборы (пошлины), платежи, включаемые в затраты на
 производство продукции (работ, услуг)</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>суточные и подъемные</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>вознаграждения за рационализаторские предложения и выплата авторских
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">суточные и подъемные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вознаграждения за рационализаторские предложения и выплата авторских
 вознаграждений</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>из нее за аренду зданий, сооружений и земельных участков</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>в том числе: арендная плата</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>прочие затраты (сумма строк 041, с 042 по 046, 058, 244)</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>амортизация основных средств и нематериальных активов, используемых в
+    <t xml:space="preserve">240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из нее за аренду зданий, сооружений и земельных участков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в том числе: арендная плата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прочие затраты (сумма строк 041, с 042 по 046, 058, 244)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">амортизация основных средств и нематериальных активов, используемых в
 предпринимательской деятельности</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>из них расходы на форменную и фирменную одежду и обувь</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>налог на добавленную стоимость, включенный в затраты</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>из них: плата за природные ресурсы</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>прочие материальные затраты</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>техническое обслуживание и ремонт автомобилей и мотоциклов</t>
-  </si>
-  <si>
-    <t>услуги по хранению и складированию</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>техническое обслуживание и ремонт компьютеров, периферийного и коммуникационного
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них расходы на форменную и фирменную одежду и обувь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">налог на добавленную стоимость, включенный в затраты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них: плата за природные ресурсы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прочие материальные затраты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">техническое обслуживание и ремонт автомобилей и мотоциклов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">услуги по хранению и складированию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">техническое обслуживание и ремонт компьютеров, периферийного и коммуникационного
 оборудования</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>текущий и капитальный ремонт зданий и сооружений</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>из них: перевозка грузов</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>работы (услуги) производственного характера, выполненные другими субъектами
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">текущий и капитальный ремонт зданий и сооружений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них: перевозка грузов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">работы (услуги) производственного характера, выполненные другими субъектами
 хозяйствования</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>покупные комплектующие изделия и полуфабрикаты</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>в том числе: сырье и материалы</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>в том числе: материальные затраты (сумма строк с 023 по 025, с 030 по 033)</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Затраты на производство и реализацию продукции (работ, услуг) (сумма строк 022,
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">покупные комплектующие изделия и полуфабрикаты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в том числе: сырье и материалы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в том числе: материальные затраты (сумма строк с 023 по 025, с 030 по 033)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Затраты на производство и реализацию продукции (работ, услуг) (сумма строк 022,
 036, с 038 по 040)</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>За квартал</t>
-  </si>
-  <si>
-    <t>Раздел 2</t>
-  </si>
-  <si>
-    <t>Затраты на производство и реализацию продукции (работ, услуг) по основному виду экономической деятельности организации</t>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">За квартал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Затраты на производство и реализацию продукции (работ, услуг) по основному виду экономической деятельности организации</t>
   </si>
   <si>
     <t xml:space="preserve">Таблица 2  </t>
   </si>
   <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>по стоимости первых по времени поступления запасов (способ ФИФО)</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>по средней стоимости</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>Способы оценки материальных затрат: по стоимости каждой единицы</t>
-  </si>
-  <si>
-    <t>Наименование</t>
-  </si>
-  <si>
-    <t>Раздел 3</t>
-  </si>
-  <si>
-    <t>Оценка материальных затрат</t>
+    <t xml:space="preserve">302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">по стоимости первых по времени поступления запасов (способ ФИФО)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">по средней стоимости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Способы оценки материальных затрат: по стоимости каждой единицы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка материальных затрат</t>
   </si>
   <si>
     <t xml:space="preserve">Таблица 3 (по строке, соответствующей применяемому методу, проставляется код 1) </t>
   </si>
   <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>Всего (сумма строк с 110 по 152)</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>Услуги по ликвидации загрязнений (39.0)</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>Услуги по сбору, обработке и удалению отходов (38.1-38.3)</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>Услуги по сбору и обработке сточных вод (37.0)</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>Услуги по сбору, очистке и водоснабжению (36.0)</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>Снабжение паром, горячей водой и кондиционированным воздухом (35.3)</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Газ (топливо газообразное) (35.2)</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>Производство и распределение электроэнергии (35.1)</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>Услуги по ремонту и установке машин и оборудования (33.1-33.2)</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>Мебель и прочая продукция, не включенная в другие строки (31.0-32.9)</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>Прочее транспортное оборудование (30.1-30.9)</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>Автомобили, прицепы и полуприцепы (29.1-29.3)</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>Машины для сельского и лесного хозяйства (28.3)</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>Прочие машины и оборудование, за исключением машин для сельского и лесного
+    <t xml:space="preserve">153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всего (сумма строк с 110 по 152)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Услуги по ликвидации загрязнений (39.0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Услуги по сбору, обработке и удалению отходов (38.1-38.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Услуги по сбору и обработке сточных вод (37.0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Услуги по сбору, очистке и водоснабжению (36.0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Снабжение паром, горячей водой и кондиционированным воздухом (35.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Газ (топливо газообразное) (35.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Производство и распределение электроэнергии (35.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Услуги по ремонту и установке машин и оборудования (33.1-33.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мебель и прочая продукция, не включенная в другие строки (31.0-32.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прочее транспортное оборудование (30.1-30.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автомобили, прицепы и полуприцепы (29.1-29.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Машины для сельского и лесного хозяйства (28.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прочие машины и оборудование, за исключением машин для сельского и лесного
 хозяйства (28.1-28.2;28.4-28.9)</t>
   </si>
   <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>Оборудование электрическое (27.1-27.9)</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>Компьютеры, оборудование электронное и оптическое  (26.1-26.8)</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>Готовые металлические изделия (25.1-25.9)</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>Продукция и услуги металлургического производства (24.1-24.5)</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>Прочие неметаллические минеральные изделия (23.1-23.9)</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>Резиновые и пластмассовые изделия (22.1-22.2)</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>Фармацевтические продукты (21.1-21.2)</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>Удобрения и азотные соединения (20.15)</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>Химическая продукция, кроме удобрений и азотных соединений
+    <t xml:space="preserve">139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оборудование электрическое (27.1-27.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютеры, оборудование электронное и оптическое  (26.1-26.8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Готовые металлические изделия (25.1-25.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продукция и услуги металлургического производства (24.1-24.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прочие неметаллические минеральные изделия (23.1-23.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Резиновые и пластмассовые изделия (22.1-22.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фармацевтические продукты (21.1-21.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удобрения и азотные соединения (20.15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Химическая продукция, кроме удобрений и азотных соединений
 (20.11-20.14;20.16-20.6)</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>Нефтепродукты (19.20.2-19.20.4)</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>Брикеты из угля и торфа (19.20.1)</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>Кокс (19.1)</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>Печатная  продукция и тиражирование носителей записей (18.1.-18.2)</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>Бумага и изделия из бумаги (17.1-17.2)</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>Продукция обработки древесины, изделия из дерева и пробки, кроме мебели, изделия
+    <t xml:space="preserve">130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нефтепродукты (19.20.2-19.20.4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Брикеты из угля и торфа (19.20.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кокс (19.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печатная  продукция и тиражирование носителей записей (18.1.-18.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бумага и изделия из бумаги (17.1-17.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продукция обработки древесины, изделия из дерева и пробки, кроме мебели, изделия
 из соломки и материалов для плетения и услуги в этих областях (16.1-16.2)</t>
   </si>
   <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>Кожа, меха натуральные, изделия из кожи, кроме одежды, обувь (15.1-.15.2)</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>Изделия и услуги текстильного производства, одежда, меховые изделия (13.1-14.3)</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>Пищевые продукты, включая напитки, табачные изделия (10.1-12.0)</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>Услуги в области горнодобывающей промышленности (09.1-09.9)</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>Продукция горнодобывающей промышленности прочая (08.92-08.99)</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>Сырье минеральное для химической промышленности и производства удобрений (08.91)</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>Камень, пески, глины (08.1)</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>Металлические руды (07.1-07.2)</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>Сырая нефть и природный газ (06.1-06.2)</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>Уголь (05.1-05.2)</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>Продукция и услуги рыболовства и рыбоводства (03.0)</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Продукция лесного хозяйства, лесозаготовок и услуги в этих областях (02.1-02.4)</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Продукция охоты, ловли диких животных и услуги в этих областях (01.7)</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>Услуги в области сельского хозяйства (01.6)</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Продукция сельского хозяйства (01.1-01.4)</t>
-  </si>
-  <si>
-    <t>Остатки сырья и
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кожа, меха натуральные, изделия из кожи, кроме одежды, обувь (15.1-.15.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изделия и услуги текстильного производства, одежда, меховые изделия (13.1-14.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пищевые продукты, включая напитки, табачные изделия (10.1-12.0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Услуги в области горнодобывающей промышленности (09.1-09.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продукция горнодобывающей промышленности прочая (08.92-08.99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сырье минеральное для химической промышленности и производства удобрений (08.91)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Камень, пески, глины (08.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Металлические руды (07.1-07.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сырая нефть и природный газ (06.1-06.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уголь (05.1-05.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продукция и услуги рыболовства и рыбоводства (03.0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продукция лесного хозяйства, лесозаготовок и услуги в этих областях (02.1-02.4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продукция охоты, ловли диких животных и услуги в этих областях (01.7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Услуги в области сельского хозяйства (01.6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продукция сельского хозяйства (01.1-01.4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Остатки сырья и
 материалов в целом
 по организации по
 всем видам
@@ -913,19 +907,19 @@
 деятельности</t>
   </si>
   <si>
-    <t>Наименование продукции (код ОКРБ 007-2012)</t>
-  </si>
-  <si>
-    <t>Раздел 4</t>
-  </si>
-  <si>
-    <t>Распределение материальных затрат</t>
-  </si>
-  <si>
-    <t>Таблица 4 (Заполняется в отчете за январь-декабрь; некоммерческие организации, их обособленные подразделения раздел IV не заполняют)</t>
-  </si>
-  <si>
-    <t>Материальные
+    <t xml:space="preserve">Наименование продукции (код ОКРБ 007-2012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Распределение материальных затрат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 4 (Заполняется в отчете за январь-декабрь; некоммерческие организации, их обособленные подразделения раздел IV не заполняют)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Материальные
 затраты
 на
 производство
@@ -944,36 +938,36 @@
 период</t>
   </si>
   <si>
-    <t>на
+    <t xml:space="preserve">на
 начало
 отчетного
 года</t>
   </si>
   <si>
-    <t>на
+    <t xml:space="preserve">на
 конец
 отчетного
 года</t>
   </si>
   <si>
-    <t>Лицо, ответственное за составление и представление
+    <t xml:space="preserve">Лицо, ответственное за составление и представление
 первичных статистических данных</t>
   </si>
   <si>
-    <t>(должность)</t>
-  </si>
-  <si>
-    <t>(подпись)</t>
-  </si>
-  <si>
-    <t>(инициалы, фамилия)</t>
-  </si>
-  <si>
-    <t>(фамилия, собственное имя, отчество контактного
+    <t xml:space="preserve">(должность)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(подпись)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(инициалы, фамилия)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(фамилия, собственное имя, отчество контактного
 лица, номер телефона, адрес электронной почты)</t>
   </si>
   <si>
-    <t>(дата составления государственной
+    <t xml:space="preserve">(дата составления государственной
 статистической отчетности)</t>
   </si>
   <si>
@@ -984,6 +978,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1341,11 +1336,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1647,8 +1642,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A2:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:M9"/>
@@ -1953,8 +1948,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C9" sqref="C9:D31"/>
@@ -2263,8 +2258,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
@@ -2883,8 +2878,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -2986,8 +2981,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A60" sqref="A60:A61"/>
